--- a/Prevalidador/archivos/datos_concatenados.xlsx
+++ b/Prevalidador/archivos/datos_concatenados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,218 +422,824 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Entidad de la cuenta</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Centro origen</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Filler</t>
+          <t>Centro cuenta</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Numero de la cuenta</t>
+          <t>filler</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Valor Ajuste</t>
+          <t>numero de la cuenta</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cuenta</t>
+          <t>tipo</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Tipo de operación</t>
+          <t>valor ajuste</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>justificación contable</t>
+          <t>Cuenta a afectar</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Cuenta contrapartida</t>
+          <t>Justificacion contable</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Comentario</t>
+          <t>Cuentas contables contrapartida</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Detalle del ajuste realizado</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>TIPO DE DOCUMENTO</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>NUMERO DE DOCUMENTO</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DIGITO DE VERIFICACIÓN</t>
-        </is>
-      </c>
       <c r="N1" t="inlineStr">
+        <is>
+          <t>DIGITO DE VERIFICACION</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>__archivo_origen</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>0013</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0548</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>111111111</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>539000.02</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11111111111111111111</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ABONO</t>
+          <t>111111111111</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>196095001221</t>
+          <t>SALDO A FAVOR</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Aquí va detalle de la TRX</t>
+          <t>196095001912</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Ajuste por Saldo a Favor solicitado por el Call Center para la tarjeta N° 518841******0424 por valor de $ 2</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>86045177</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>OPS proceso X 08-02-2026 .xlsx</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Tapa OPS .xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>0013</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0548</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>222222222</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22222222222222222222</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SALDO A FAVOR</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>196095001820</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Ajuste por Saldo a Favor solicitado por el Call Center para la tarjeta N° 450407******6878 por valor de $ 199</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>79162823</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Tapa OPS .xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>111111111111</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SALDO A FAVOR</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>196095001820</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Ajuste por Saldo a Favor solicitado por el Call Center para la tarjeta N° 450408******3039 por valor de $ 75</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>19441499</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Tapa OPS .xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>444444444</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>44444444444444444444</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SALDO A FAVOR</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>196095001912</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Ajuste por Saldo a Favor solicitado por el Call Center para la tarjeta N° 518841******6594 por valor de $ 645</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>42148315</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Tapa OPS .xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>555555555</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>55555555555555555555</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SALDO A FAVOR</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>196095001820</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Ajuste por Saldo a Favor solicitado por el Call Center para la tarjeta N° 450408******3664 por valor de $ 30</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>12224765</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Tapa OPS .xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>222222222</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>22222222222222222222</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SALDO A FAVOR</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>196095001912</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Ajuste por Saldo a Favor solicitado por el Call Center para la tarjeta N° 518841******0424 por valor de $ 2</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>86045177</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Tapa OPS mayor 3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>111111111</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>539000.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3980</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>11111111111111111111</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ABONO</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>196095001221</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Aquí va detalle de la TRX</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>OPS proceso X 08-02-2026 MAYOR 3.xlsx</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SALDO A FAVOR</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>196095001820</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Ajuste por Saldo a Favor solicitado por el Call Center para la tarjeta N° 450407******6878 por valor de $ 199</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>79162823</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Tapa OPS mayor 3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>444444444</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>44444444444444444444</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SALDO A FAVOR</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>196095001820</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Ajuste por Saldo a Favor solicitado por el Call Center para la tarjeta N° 450408******3039 por valor de $ 75</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>19441499</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Tapa OPS mayor 3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>555555555</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12900</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>55555555555555555555</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SALDO A FAVOR</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>196095001912</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Ajuste por Saldo a Favor solicitado por el Call Center para la tarjeta N° 518841******6594 por valor de $ 645</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>42148315</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Tapa OPS mayor 3.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>333333333</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>33333333333333333333</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SALDO A FAVOR</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>196095001820</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Ajuste por Saldo a Favor solicitado por el Call Center para la tarjeta N° 450408******3664 por valor de $ 30</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>12224765</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Tapa OPS mayor 3.xlsx</t>
         </is>
       </c>
     </row>
